--- a/GradeDistributionsDB/Spring2015/Output/Spring2015 BA.xlsx
+++ b/GradeDistributionsDB/Spring2015/Output/Spring2015 BA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="876">
   <si>
     <t>Course</t>
   </si>
@@ -1840,6 +1840,12 @@
     <t>2.00%</t>
   </si>
   <si>
+    <t>MGMT-475</t>
+  </si>
+  <si>
+    <t>KING-METTERS K</t>
+  </si>
+  <si>
     <t>MGMT-489</t>
   </si>
   <si>
@@ -1951,6 +1957,12 @@
     <t>MGMT-638</t>
   </si>
   <si>
+    <t>MGMT-639</t>
+  </si>
+  <si>
+    <t>96.43%</t>
+  </si>
+  <si>
     <t>MGMT-643</t>
   </si>
   <si>
@@ -2416,6 +2428,21 @@
     <t>5.52%</t>
   </si>
   <si>
+    <t>ARREOLA-RISA A</t>
+  </si>
+  <si>
+    <t>37.21%</t>
+  </si>
+  <si>
+    <t>39.53%</t>
+  </si>
+  <si>
+    <t>18.60%</t>
+  </si>
+  <si>
+    <t>4.65%</t>
+  </si>
+  <si>
     <t>SCMT-335</t>
   </si>
   <si>
@@ -2477,6 +2504,21 @@
   </si>
   <si>
     <t>6.45%</t>
+  </si>
+  <si>
+    <t>SCMT-361</t>
+  </si>
+  <si>
+    <t>38.74%</t>
+  </si>
+  <si>
+    <t>44.14%</t>
+  </si>
+  <si>
+    <t>16.22%</t>
+  </si>
+  <si>
+    <t>0.90%</t>
   </si>
   <si>
     <t>SCMT-364</t>
@@ -2936,7 +2978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H622"/>
+  <dimension ref="A1:H632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7377,81 +7419,81 @@
     </row>
     <row r="410" spans="1:8">
       <c r="B410" t="s">
+        <v>609</v>
+      </c>
+      <c r="C410" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D410" t="s">
+        <v>388</v>
+      </c>
+      <c r="E410" t="s">
+        <v>385</v>
+      </c>
+      <c r="F410" t="s">
+        <v>21</v>
+      </c>
+      <c r="G410" t="s">
+        <v>21</v>
+      </c>
+      <c r="H410" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
+      <c r="A412" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="B413" t="s">
         <v>384</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C413" t="n">
         <v>4</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D413" t="s">
         <v>69</v>
       </c>
-      <c r="E410" t="s">
-        <v>21</v>
-      </c>
-      <c r="F410" t="s">
-        <v>21</v>
-      </c>
-      <c r="G410" t="s">
-        <v>21</v>
-      </c>
-      <c r="H410" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8">
-      <c r="B411" t="s">
-        <v>609</v>
-      </c>
-      <c r="C411" t="n">
+      <c r="E413" t="s">
+        <v>21</v>
+      </c>
+      <c r="F413" t="s">
+        <v>21</v>
+      </c>
+      <c r="G413" t="s">
+        <v>21</v>
+      </c>
+      <c r="H413" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="B414" t="s">
+        <v>611</v>
+      </c>
+      <c r="C414" t="n">
         <v>3.5</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D414" t="s">
         <v>131</v>
       </c>
-      <c r="E411" t="s">
+      <c r="E414" t="s">
         <v>131</v>
       </c>
-      <c r="F411" t="s">
-        <v>21</v>
-      </c>
-      <c r="G411" t="s">
-        <v>21</v>
-      </c>
-      <c r="H411" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8">
-      <c r="B412" t="s">
-        <v>573</v>
-      </c>
-      <c r="C412" t="n">
-        <v>4</v>
-      </c>
-      <c r="D412" t="s">
-        <v>69</v>
-      </c>
-      <c r="E412" t="s">
-        <v>21</v>
-      </c>
-      <c r="F412" t="s">
-        <v>21</v>
-      </c>
-      <c r="G412" t="s">
-        <v>21</v>
-      </c>
-      <c r="H412" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8">
-      <c r="A414" t="s">
-        <v>610</v>
+      <c r="F414" t="s">
+        <v>21</v>
+      </c>
+      <c r="G414" t="s">
+        <v>21</v>
+      </c>
+      <c r="H414" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="415" spans="1:8">
       <c r="B415" t="s">
-        <v>611</v>
+        <v>573</v>
       </c>
       <c r="C415" t="n">
         <v>4</v>
@@ -7482,13 +7524,13 @@
         <v>613</v>
       </c>
       <c r="C418" t="n">
-        <v>3.574</v>
+        <v>4</v>
       </c>
       <c r="D418" t="s">
-        <v>614</v>
+        <v>69</v>
       </c>
       <c r="E418" t="s">
-        <v>615</v>
+        <v>21</v>
       </c>
       <c r="F418" t="s">
         <v>21</v>
@@ -7502,75 +7544,75 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="421" spans="1:8">
       <c r="B421" t="s">
+        <v>615</v>
+      </c>
+      <c r="C421" t="n">
+        <v>3.574</v>
+      </c>
+      <c r="D421" t="s">
+        <v>616</v>
+      </c>
+      <c r="E421" t="s">
         <v>617</v>
       </c>
-      <c r="C421" t="n">
+      <c r="F421" t="s">
+        <v>21</v>
+      </c>
+      <c r="G421" t="s">
+        <v>21</v>
+      </c>
+      <c r="H421" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="A423" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
+      <c r="B424" t="s">
+        <v>619</v>
+      </c>
+      <c r="C424" t="n">
         <v>3.431</v>
       </c>
-      <c r="D421" t="s">
-        <v>618</v>
-      </c>
-      <c r="E421" t="s">
-        <v>619</v>
-      </c>
-      <c r="F421" t="s">
-        <v>21</v>
-      </c>
-      <c r="G421" t="s">
-        <v>21</v>
-      </c>
-      <c r="H421" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8">
-      <c r="B422" t="s">
+      <c r="D424" t="s">
         <v>620</v>
       </c>
-      <c r="C422" t="n">
-        <v>3.6235</v>
-      </c>
-      <c r="D422" t="s">
-        <v>143</v>
-      </c>
-      <c r="E422" t="s">
-        <v>362</v>
-      </c>
-      <c r="F422" t="s">
-        <v>174</v>
-      </c>
-      <c r="G422" t="s">
-        <v>21</v>
-      </c>
-      <c r="H422" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8">
-      <c r="A424" t="s">
+      <c r="E424" t="s">
         <v>621</v>
+      </c>
+      <c r="F424" t="s">
+        <v>21</v>
+      </c>
+      <c r="G424" t="s">
+        <v>21</v>
+      </c>
+      <c r="H424" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="425" spans="1:8">
       <c r="B425" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="C425" t="n">
-        <v>3.769</v>
+        <v>3.6235</v>
       </c>
       <c r="D425" t="s">
-        <v>622</v>
+        <v>143</v>
       </c>
       <c r="E425" t="s">
-        <v>113</v>
+        <v>362</v>
       </c>
       <c r="F425" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="G425" t="s">
         <v>21</v>
@@ -7586,16 +7628,16 @@
     </row>
     <row r="428" spans="1:8">
       <c r="B428" t="s">
+        <v>615</v>
+      </c>
+      <c r="C428" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="D428" t="s">
         <v>624</v>
       </c>
-      <c r="C428" t="n">
-        <v>3.531</v>
-      </c>
-      <c r="D428" t="s">
-        <v>625</v>
-      </c>
       <c r="E428" t="s">
-        <v>626</v>
+        <v>113</v>
       </c>
       <c r="F428" t="s">
         <v>21</v>
@@ -7609,21 +7651,21 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="431" spans="1:8">
       <c r="B431" t="s">
+        <v>626</v>
+      </c>
+      <c r="C431" t="n">
+        <v>3.531</v>
+      </c>
+      <c r="D431" t="s">
+        <v>627</v>
+      </c>
+      <c r="E431" t="s">
         <v>628</v>
-      </c>
-      <c r="C431" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D431" t="s">
-        <v>346</v>
-      </c>
-      <c r="E431" t="s">
-        <v>25</v>
       </c>
       <c r="F431" t="s">
         <v>21</v>
@@ -7645,13 +7687,13 @@
         <v>630</v>
       </c>
       <c r="C434" t="n">
-        <v>3.741</v>
+        <v>3.6</v>
       </c>
       <c r="D434" t="s">
-        <v>631</v>
+        <v>346</v>
       </c>
       <c r="E434" t="s">
-        <v>632</v>
+        <v>25</v>
       </c>
       <c r="F434" t="s">
         <v>21</v>
@@ -7665,24 +7707,24 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="437" spans="1:8">
       <c r="B437" t="s">
+        <v>632</v>
+      </c>
+      <c r="C437" t="n">
+        <v>3.741</v>
+      </c>
+      <c r="D437" t="s">
+        <v>633</v>
+      </c>
+      <c r="E437" t="s">
         <v>634</v>
       </c>
-      <c r="C437" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D437" t="s">
-        <v>635</v>
-      </c>
-      <c r="E437" t="s">
-        <v>636</v>
-      </c>
       <c r="F437" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G437" t="s">
         <v>21</v>
@@ -7693,24 +7735,24 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="440" spans="1:8">
       <c r="B440" t="s">
+        <v>636</v>
+      </c>
+      <c r="C440" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D440" t="s">
+        <v>637</v>
+      </c>
+      <c r="E440" t="s">
         <v>638</v>
       </c>
-      <c r="C440" t="n">
-        <v>4</v>
-      </c>
-      <c r="D440" t="s">
-        <v>69</v>
-      </c>
-      <c r="E440" t="s">
-        <v>21</v>
-      </c>
       <c r="F440" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G440" t="s">
         <v>21</v>
@@ -7729,13 +7771,13 @@
         <v>640</v>
       </c>
       <c r="C443" t="n">
-        <v>3.833</v>
+        <v>4</v>
       </c>
       <c r="D443" t="s">
-        <v>454</v>
+        <v>69</v>
       </c>
       <c r="E443" t="s">
-        <v>455</v>
+        <v>21</v>
       </c>
       <c r="F443" t="s">
         <v>21</v>
@@ -7757,13 +7799,13 @@
         <v>642</v>
       </c>
       <c r="C446" t="n">
-        <v>3.296</v>
+        <v>3.833</v>
       </c>
       <c r="D446" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="E446" t="s">
-        <v>643</v>
+        <v>455</v>
       </c>
       <c r="F446" t="s">
         <v>21</v>
@@ -7777,21 +7819,21 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="449" spans="1:8">
       <c r="B449" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C449" t="n">
-        <v>3.6</v>
+        <v>3.296</v>
       </c>
       <c r="D449" t="s">
-        <v>346</v>
+        <v>424</v>
       </c>
       <c r="E449" t="s">
-        <v>25</v>
+        <v>645</v>
       </c>
       <c r="F449" t="s">
         <v>21</v>
@@ -7805,24 +7847,24 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="452" spans="1:8">
       <c r="B452" t="s">
-        <v>369</v>
+        <v>644</v>
       </c>
       <c r="C452" t="n">
-        <v>3.413</v>
+        <v>3.6</v>
       </c>
       <c r="D452" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E452" t="s">
-        <v>646</v>
+        <v>25</v>
       </c>
       <c r="F452" t="s">
-        <v>647</v>
+        <v>21</v>
       </c>
       <c r="G452" t="s">
         <v>21</v>
@@ -7833,24 +7875,24 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="455" spans="1:8">
       <c r="B455" t="s">
-        <v>649</v>
+        <v>609</v>
       </c>
       <c r="C455" t="n">
-        <v>3.388</v>
+        <v>3.9655</v>
       </c>
       <c r="D455" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E455" t="s">
-        <v>651</v>
+        <v>311</v>
       </c>
       <c r="F455" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="G455" t="s">
         <v>21</v>
@@ -7861,24 +7903,24 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="458" spans="1:8">
       <c r="B458" t="s">
-        <v>577</v>
+        <v>369</v>
       </c>
       <c r="C458" t="n">
-        <v>3.5</v>
+        <v>3.413</v>
       </c>
       <c r="D458" t="s">
-        <v>131</v>
+        <v>337</v>
       </c>
       <c r="E458" t="s">
-        <v>131</v>
+        <v>650</v>
       </c>
       <c r="F458" t="s">
-        <v>21</v>
+        <v>651</v>
       </c>
       <c r="G458" t="s">
         <v>21</v>
@@ -7889,15 +7931,15 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="461" spans="1:8">
       <c r="B461" t="s">
-        <v>552</v>
+        <v>653</v>
       </c>
       <c r="C461" t="n">
-        <v>3.4325</v>
+        <v>3.388</v>
       </c>
       <c r="D461" t="s">
         <v>654</v>
@@ -7906,10 +7948,10 @@
         <v>655</v>
       </c>
       <c r="F461" t="s">
-        <v>656</v>
+        <v>280</v>
       </c>
       <c r="G461" t="s">
-        <v>657</v>
+        <v>21</v>
       </c>
       <c r="H461" t="s">
         <v>21</v>
@@ -7917,24 +7959,24 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="464" spans="1:8">
       <c r="B464" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="C464" t="n">
-        <v>3.518</v>
+        <v>3.5</v>
       </c>
       <c r="D464" t="s">
-        <v>363</v>
+        <v>131</v>
       </c>
       <c r="E464" t="s">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="F464" t="s">
-        <v>364</v>
+        <v>21</v>
       </c>
       <c r="G464" t="s">
         <v>21</v>
@@ -7945,27 +7987,27 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="467" spans="1:8">
       <c r="B467" t="s">
+        <v>552</v>
+      </c>
+      <c r="C467" t="n">
+        <v>3.4325</v>
+      </c>
+      <c r="D467" t="s">
+        <v>658</v>
+      </c>
+      <c r="E467" t="s">
+        <v>659</v>
+      </c>
+      <c r="F467" t="s">
         <v>660</v>
       </c>
-      <c r="C467" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="D467" t="s">
+      <c r="G467" t="s">
         <v>661</v>
-      </c>
-      <c r="E467" t="s">
-        <v>355</v>
-      </c>
-      <c r="F467" t="s">
-        <v>21</v>
-      </c>
-      <c r="G467" t="s">
-        <v>21</v>
       </c>
       <c r="H467" t="s">
         <v>21</v>
@@ -7978,19 +8020,19 @@
     </row>
     <row r="470" spans="1:8">
       <c r="B470" t="s">
-        <v>663</v>
+        <v>602</v>
       </c>
       <c r="C470" t="n">
-        <v>3.667</v>
+        <v>3.518</v>
       </c>
       <c r="D470" t="s">
-        <v>458</v>
+        <v>363</v>
       </c>
       <c r="E470" t="s">
         <v>362</v>
       </c>
       <c r="F470" t="s">
-        <v>21</v>
+        <v>364</v>
       </c>
       <c r="G470" t="s">
         <v>21</v>
@@ -8001,21 +8043,21 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="473" spans="1:8">
       <c r="B473" t="s">
+        <v>664</v>
+      </c>
+      <c r="C473" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D473" t="s">
         <v>665</v>
       </c>
-      <c r="C473" t="n">
-        <v>3.755</v>
-      </c>
-      <c r="D473" t="s">
-        <v>666</v>
-      </c>
       <c r="E473" t="s">
-        <v>667</v>
+        <v>355</v>
       </c>
       <c r="F473" t="s">
         <v>21</v>
@@ -8029,21 +8071,21 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="476" spans="1:8">
       <c r="B476" t="s">
-        <v>384</v>
+        <v>667</v>
       </c>
       <c r="C476" t="n">
-        <v>3.6</v>
+        <v>3.667</v>
       </c>
       <c r="D476" t="s">
-        <v>346</v>
+        <v>458</v>
       </c>
       <c r="E476" t="s">
-        <v>25</v>
+        <v>362</v>
       </c>
       <c r="F476" t="s">
         <v>21</v>
@@ -8057,129 +8099,129 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="479" spans="1:8">
       <c r="B479" t="s">
-        <v>617</v>
+        <v>669</v>
       </c>
       <c r="C479" t="n">
+        <v>3.755</v>
+      </c>
+      <c r="D479" t="s">
+        <v>670</v>
+      </c>
+      <c r="E479" t="s">
+        <v>671</v>
+      </c>
+      <c r="F479" t="s">
+        <v>21</v>
+      </c>
+      <c r="G479" t="s">
+        <v>21</v>
+      </c>
+      <c r="H479" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="A481" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="B482" t="s">
+        <v>384</v>
+      </c>
+      <c r="C482" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D482" t="s">
+        <v>346</v>
+      </c>
+      <c r="E482" t="s">
+        <v>25</v>
+      </c>
+      <c r="F482" t="s">
+        <v>21</v>
+      </c>
+      <c r="G482" t="s">
+        <v>21</v>
+      </c>
+      <c r="H482" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="A484" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="B485" t="s">
+        <v>619</v>
+      </c>
+      <c r="C485" t="n">
         <v>3.333</v>
       </c>
-      <c r="D479" t="s">
+      <c r="D485" t="s">
         <v>362</v>
       </c>
-      <c r="E479" t="s">
+      <c r="E485" t="s">
         <v>458</v>
       </c>
-      <c r="F479" t="s">
-        <v>21</v>
-      </c>
-      <c r="G479" t="s">
-        <v>21</v>
-      </c>
-      <c r="H479" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8">
-      <c r="B480" t="s">
-        <v>670</v>
-      </c>
-      <c r="C480" t="n">
+      <c r="F485" t="s">
+        <v>21</v>
+      </c>
+      <c r="G485" t="s">
+        <v>21</v>
+      </c>
+      <c r="H485" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="B486" t="s">
+        <v>674</v>
+      </c>
+      <c r="C486" t="n">
         <v>3.338</v>
       </c>
-      <c r="D480" t="s">
-        <v>671</v>
-      </c>
-      <c r="E480" t="s">
-        <v>672</v>
-      </c>
-      <c r="F480" t="s">
-        <v>21</v>
-      </c>
-      <c r="G480" t="s">
-        <v>21</v>
-      </c>
-      <c r="H480" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8">
-      <c r="B481" t="s">
-        <v>592</v>
-      </c>
-      <c r="C481" t="n">
-        <v>3.611</v>
-      </c>
-      <c r="D481" t="s">
-        <v>673</v>
-      </c>
-      <c r="E481" t="s">
-        <v>674</v>
-      </c>
-      <c r="F481" t="s">
-        <v>21</v>
-      </c>
-      <c r="G481" t="s">
-        <v>21</v>
-      </c>
-      <c r="H481" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8">
-      <c r="A483" t="s">
+      <c r="D486" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="484" spans="1:8">
-      <c r="B484" t="s">
-        <v>127</v>
-      </c>
-      <c r="C484" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="D484" t="s">
+      <c r="E486" t="s">
         <v>676</v>
       </c>
-      <c r="E484" t="s">
-        <v>677</v>
-      </c>
-      <c r="F484" t="s">
-        <v>21</v>
-      </c>
-      <c r="G484" t="s">
-        <v>21</v>
-      </c>
-      <c r="H484" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8">
-      <c r="A486" t="s">
-        <v>678</v>
+      <c r="F486" t="s">
+        <v>21</v>
+      </c>
+      <c r="G486" t="s">
+        <v>21</v>
+      </c>
+      <c r="H486" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="487" spans="1:8">
       <c r="B487" t="s">
-        <v>679</v>
+        <v>592</v>
       </c>
       <c r="C487" t="n">
-        <v>3.6317</v>
+        <v>3.611</v>
       </c>
       <c r="D487" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E487" t="s">
-        <v>47</v>
+        <v>678</v>
       </c>
       <c r="F487" t="s">
-        <v>681</v>
+        <v>21</v>
       </c>
       <c r="G487" t="s">
-        <v>682</v>
+        <v>21</v>
       </c>
       <c r="H487" t="s">
         <v>21</v>
@@ -8187,157 +8229,157 @@
     </row>
     <row r="489" spans="1:8">
       <c r="A489" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="490" spans="1:8">
       <c r="B490" t="s">
+        <v>127</v>
+      </c>
+      <c r="C490" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="D490" t="s">
+        <v>680</v>
+      </c>
+      <c r="E490" t="s">
+        <v>681</v>
+      </c>
+      <c r="F490" t="s">
+        <v>21</v>
+      </c>
+      <c r="G490" t="s">
+        <v>21</v>
+      </c>
+      <c r="H490" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="A492" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="B493" t="s">
+        <v>683</v>
+      </c>
+      <c r="C493" t="n">
+        <v>3.6317</v>
+      </c>
+      <c r="D493" t="s">
         <v>684</v>
       </c>
-      <c r="C490" t="n">
+      <c r="E493" t="s">
+        <v>47</v>
+      </c>
+      <c r="F493" t="s">
+        <v>685</v>
+      </c>
+      <c r="G493" t="s">
+        <v>686</v>
+      </c>
+      <c r="H493" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="A495" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="B496" t="s">
+        <v>688</v>
+      </c>
+      <c r="C496" t="n">
         <v>3.73</v>
       </c>
-      <c r="D490" t="s">
-        <v>685</v>
-      </c>
-      <c r="E490" t="s">
-        <v>686</v>
-      </c>
-      <c r="F490" t="s">
+      <c r="D496" t="s">
+        <v>689</v>
+      </c>
+      <c r="E496" t="s">
+        <v>690</v>
+      </c>
+      <c r="F496" t="s">
         <v>607</v>
       </c>
-      <c r="G490" t="s">
-        <v>21</v>
-      </c>
-      <c r="H490" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8">
-      <c r="B491" t="s">
-        <v>688</v>
-      </c>
-      <c r="C491" t="n">
+      <c r="G496" t="s">
+        <v>21</v>
+      </c>
+      <c r="H496" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="B497" t="s">
+        <v>692</v>
+      </c>
+      <c r="C497" t="n">
         <v>3.319</v>
       </c>
-      <c r="D491" t="s">
-        <v>689</v>
-      </c>
-      <c r="E491" t="s">
-        <v>690</v>
-      </c>
-      <c r="F491" t="s">
-        <v>691</v>
-      </c>
-      <c r="G491" t="s">
-        <v>21</v>
-      </c>
-      <c r="H491" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8">
-      <c r="A493" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8">
-      <c r="B494" t="s">
+      <c r="D497" t="s">
+        <v>693</v>
+      </c>
+      <c r="E497" t="s">
+        <v>694</v>
+      </c>
+      <c r="F497" t="s">
+        <v>695</v>
+      </c>
+      <c r="G497" t="s">
+        <v>21</v>
+      </c>
+      <c r="H497" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="B500" t="s">
         <v>254</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C500" t="n">
         <v>3.6223</v>
       </c>
-      <c r="D494" t="s">
+      <c r="D500" t="s">
         <v>172</v>
       </c>
-      <c r="E494" t="s">
-        <v>693</v>
-      </c>
-      <c r="F494" t="s">
-        <v>21</v>
-      </c>
-      <c r="G494" t="s">
-        <v>21</v>
-      </c>
-      <c r="H494" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8">
-      <c r="B495" t="s">
-        <v>694</v>
-      </c>
-      <c r="C495" t="n">
-        <v>3.759</v>
-      </c>
-      <c r="D495" t="s">
-        <v>695</v>
-      </c>
-      <c r="E495" t="s">
-        <v>696</v>
-      </c>
-      <c r="F495" t="s">
-        <v>21</v>
-      </c>
-      <c r="G495" t="s">
-        <v>21</v>
-      </c>
-      <c r="H495" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8">
-      <c r="A497" t="s">
+      <c r="E500" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="498" spans="1:8">
-      <c r="B498" t="s">
-        <v>688</v>
-      </c>
-      <c r="C498" t="n">
-        <v>3.219</v>
-      </c>
-      <c r="D498" t="s">
-        <v>131</v>
-      </c>
-      <c r="E498" t="s">
-        <v>17</v>
-      </c>
-      <c r="F498" t="s">
-        <v>342</v>
-      </c>
-      <c r="G498" t="s">
-        <v>698</v>
-      </c>
-      <c r="H498" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8">
-      <c r="A500" t="s">
-        <v>699</v>
+      <c r="F500" t="s">
+        <v>21</v>
+      </c>
+      <c r="G500" t="s">
+        <v>21</v>
+      </c>
+      <c r="H500" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="501" spans="1:8">
       <c r="B501" t="s">
+        <v>698</v>
+      </c>
+      <c r="C501" t="n">
+        <v>3.759</v>
+      </c>
+      <c r="D501" t="s">
+        <v>699</v>
+      </c>
+      <c r="E501" t="s">
         <v>700</v>
       </c>
-      <c r="C501" t="n">
-        <v>3.1085</v>
-      </c>
-      <c r="D501" t="s">
-        <v>17</v>
-      </c>
-      <c r="E501" t="s">
-        <v>557</v>
-      </c>
       <c r="F501" t="s">
-        <v>701</v>
+        <v>21</v>
       </c>
       <c r="G501" t="s">
-        <v>702</v>
+        <v>21</v>
       </c>
       <c r="H501" t="s">
         <v>21</v>
@@ -8345,27 +8387,27 @@
     </row>
     <row r="503" spans="1:8">
       <c r="A503" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="504" spans="1:8">
       <c r="B504" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C504" t="n">
-        <v>3.5555</v>
+        <v>3.219</v>
       </c>
       <c r="D504" t="s">
-        <v>705</v>
+        <v>131</v>
       </c>
       <c r="E504" t="s">
-        <v>674</v>
+        <v>17</v>
       </c>
       <c r="F504" t="s">
-        <v>87</v>
+        <v>342</v>
       </c>
       <c r="G504" t="s">
-        <v>21</v>
+        <v>702</v>
       </c>
       <c r="H504" t="s">
         <v>21</v>
@@ -8373,27 +8415,27 @@
     </row>
     <row r="506" spans="1:8">
       <c r="A506" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="507" spans="1:8">
       <c r="B507" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C507" t="n">
-        <v>3.5783</v>
+        <v>3.1085</v>
       </c>
       <c r="D507" t="s">
-        <v>708</v>
+        <v>17</v>
       </c>
       <c r="E507" t="s">
-        <v>709</v>
+        <v>557</v>
       </c>
       <c r="F507" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G507" t="s">
-        <v>21</v>
+        <v>706</v>
       </c>
       <c r="H507" t="s">
         <v>21</v>
@@ -8401,136 +8443,136 @@
     </row>
     <row r="509" spans="1:8">
       <c r="A509" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="510" spans="1:8">
       <c r="B510" t="s">
-        <v>380</v>
+        <v>708</v>
       </c>
       <c r="C510" t="n">
-        <v>3.323</v>
+        <v>3.5555</v>
       </c>
       <c r="D510" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E510" t="s">
-        <v>713</v>
+        <v>678</v>
       </c>
       <c r="F510" t="s">
-        <v>714</v>
+        <v>87</v>
       </c>
       <c r="G510" t="s">
         <v>21</v>
       </c>
       <c r="H510" t="s">
-        <v>715</v>
+        <v>21</v>
       </c>
     </row>
     <row r="512" spans="1:8">
       <c r="A512" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="513" spans="1:8">
       <c r="B513" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C513" t="n">
-        <v>2.5358</v>
+        <v>3.5783</v>
       </c>
       <c r="D513" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E513" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F513" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G513" t="s">
-        <v>721</v>
+        <v>21</v>
       </c>
       <c r="H513" t="s">
-        <v>722</v>
+        <v>21</v>
       </c>
     </row>
     <row r="515" spans="1:8">
       <c r="A515" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="516" spans="1:8">
       <c r="B516" t="s">
-        <v>724</v>
+        <v>380</v>
       </c>
       <c r="C516" t="n">
-        <v>3.483</v>
+        <v>3.323</v>
       </c>
       <c r="D516" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="E516" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="F516" t="s">
-        <v>111</v>
+        <v>718</v>
       </c>
       <c r="G516" t="s">
         <v>21</v>
       </c>
       <c r="H516" t="s">
-        <v>21</v>
+        <v>719</v>
       </c>
     </row>
     <row r="518" spans="1:8">
       <c r="A518" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="519" spans="1:8">
       <c r="B519" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C519" t="n">
-        <v>3.765</v>
+        <v>2.5358</v>
       </c>
       <c r="D519" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E519" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="F519" t="s">
-        <v>21</v>
+        <v>724</v>
       </c>
       <c r="G519" t="s">
-        <v>21</v>
+        <v>725</v>
       </c>
       <c r="H519" t="s">
-        <v>21</v>
+        <v>726</v>
       </c>
     </row>
     <row r="521" spans="1:8">
       <c r="A521" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="522" spans="1:8">
       <c r="B522" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C522" t="n">
-        <v>3.149</v>
+        <v>3.483</v>
       </c>
       <c r="D522" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E522" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F522" t="s">
-        <v>735</v>
+        <v>111</v>
       </c>
       <c r="G522" t="s">
         <v>21</v>
@@ -8541,24 +8583,24 @@
     </row>
     <row r="524" spans="1:8">
       <c r="A524" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="525" spans="1:8">
       <c r="B525" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C525" t="n">
-        <v>3.6055</v>
+        <v>3.765</v>
       </c>
       <c r="D525" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E525" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F525" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="G525" t="s">
         <v>21</v>
@@ -8569,24 +8611,24 @@
     </row>
     <row r="527" spans="1:8">
       <c r="A527" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="528" spans="1:8">
       <c r="B528" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C528" t="n">
-        <v>3.543</v>
+        <v>3.149</v>
       </c>
       <c r="D528" t="s">
-        <v>288</v>
+        <v>737</v>
       </c>
       <c r="E528" t="s">
-        <v>25</v>
+        <v>738</v>
       </c>
       <c r="F528" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G528" t="s">
         <v>21</v>
@@ -8597,24 +8639,24 @@
     </row>
     <row r="530" spans="1:8">
       <c r="A530" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="531" spans="1:8">
       <c r="B531" t="s">
-        <v>717</v>
+        <v>741</v>
       </c>
       <c r="C531" t="n">
-        <v>3.958</v>
+        <v>3.6055</v>
       </c>
       <c r="D531" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E531" t="s">
-        <v>270</v>
+        <v>743</v>
       </c>
       <c r="F531" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="G531" t="s">
         <v>21</v>
@@ -8625,106 +8667,106 @@
     </row>
     <row r="533" spans="1:8">
       <c r="A533" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="534" spans="1:8">
       <c r="B534" t="s">
+        <v>745</v>
+      </c>
+      <c r="C534" t="n">
+        <v>3.543</v>
+      </c>
+      <c r="D534" t="s">
+        <v>288</v>
+      </c>
+      <c r="E534" t="s">
+        <v>25</v>
+      </c>
+      <c r="F534" t="s">
         <v>746</v>
       </c>
-      <c r="C534" t="n">
+      <c r="G534" t="s">
+        <v>21</v>
+      </c>
+      <c r="H534" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="B537" t="s">
+        <v>721</v>
+      </c>
+      <c r="C537" t="n">
+        <v>3.958</v>
+      </c>
+      <c r="D537" t="s">
+        <v>748</v>
+      </c>
+      <c r="E537" t="s">
+        <v>270</v>
+      </c>
+      <c r="F537" t="s">
+        <v>21</v>
+      </c>
+      <c r="G537" t="s">
+        <v>21</v>
+      </c>
+      <c r="H537" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="B540" t="s">
+        <v>750</v>
+      </c>
+      <c r="C540" t="n">
         <v>3.4735</v>
       </c>
-      <c r="D534" t="s">
+      <c r="D540" t="s">
         <v>131</v>
       </c>
-      <c r="E534" t="s">
-        <v>747</v>
-      </c>
-      <c r="F534" t="s">
-        <v>748</v>
-      </c>
-      <c r="G534" t="s">
-        <v>21</v>
-      </c>
-      <c r="H534" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8">
-      <c r="B535" t="s">
-        <v>749</v>
-      </c>
-      <c r="C535" t="n">
-        <v>3.486</v>
-      </c>
-      <c r="D535" t="s">
-        <v>750</v>
-      </c>
-      <c r="E535" t="s">
+      <c r="E540" t="s">
         <v>751</v>
       </c>
-      <c r="F535" t="s">
+      <c r="F540" t="s">
         <v>752</v>
       </c>
-      <c r="G535" t="s">
-        <v>753</v>
-      </c>
-      <c r="H535" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8">
-      <c r="A537" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8">
-      <c r="B538" t="s">
-        <v>704</v>
-      </c>
-      <c r="C538" t="n">
-        <v>4</v>
-      </c>
-      <c r="D538" t="s">
-        <v>69</v>
-      </c>
-      <c r="E538" t="s">
-        <v>21</v>
-      </c>
-      <c r="F538" t="s">
-        <v>21</v>
-      </c>
-      <c r="G538" t="s">
-        <v>21</v>
-      </c>
-      <c r="H538" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8">
-      <c r="A540" t="s">
-        <v>755</v>
+      <c r="G540" t="s">
+        <v>21</v>
+      </c>
+      <c r="H540" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="541" spans="1:8">
       <c r="B541" t="s">
-        <v>700</v>
+        <v>753</v>
       </c>
       <c r="C541" t="n">
-        <v>4</v>
+        <v>3.486</v>
       </c>
       <c r="D541" t="s">
-        <v>69</v>
+        <v>754</v>
       </c>
       <c r="E541" t="s">
-        <v>21</v>
+        <v>755</v>
       </c>
       <c r="F541" t="s">
-        <v>21</v>
+        <v>756</v>
       </c>
       <c r="G541" t="s">
-        <v>21</v>
+        <v>757</v>
       </c>
       <c r="H541" t="s">
         <v>21</v>
@@ -8732,129 +8774,129 @@
     </row>
     <row r="543" spans="1:8">
       <c r="A543" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="544" spans="1:8">
       <c r="B544" t="s">
+        <v>708</v>
+      </c>
+      <c r="C544" t="n">
+        <v>4</v>
+      </c>
+      <c r="D544" t="s">
+        <v>69</v>
+      </c>
+      <c r="E544" t="s">
+        <v>21</v>
+      </c>
+      <c r="F544" t="s">
+        <v>21</v>
+      </c>
+      <c r="G544" t="s">
+        <v>21</v>
+      </c>
+      <c r="H544" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="B547" t="s">
         <v>704</v>
       </c>
-      <c r="C544" t="n">
+      <c r="C547" t="n">
+        <v>4</v>
+      </c>
+      <c r="D547" t="s">
+        <v>69</v>
+      </c>
+      <c r="E547" t="s">
+        <v>21</v>
+      </c>
+      <c r="F547" t="s">
+        <v>21</v>
+      </c>
+      <c r="G547" t="s">
+        <v>21</v>
+      </c>
+      <c r="H547" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="B550" t="s">
+        <v>708</v>
+      </c>
+      <c r="C550" t="n">
         <v>3.919</v>
       </c>
-      <c r="D544" t="s">
-        <v>757</v>
-      </c>
-      <c r="E544" t="s">
+      <c r="D550" t="s">
+        <v>761</v>
+      </c>
+      <c r="E550" t="s">
         <v>28</v>
       </c>
-      <c r="F544" t="s">
-        <v>21</v>
-      </c>
-      <c r="G544" t="s">
-        <v>21</v>
-      </c>
-      <c r="H544" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
-      <c r="B545" t="s">
-        <v>758</v>
-      </c>
-      <c r="C545" t="n">
+      <c r="F550" t="s">
+        <v>21</v>
+      </c>
+      <c r="G550" t="s">
+        <v>21</v>
+      </c>
+      <c r="H550" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="B551" t="s">
+        <v>762</v>
+      </c>
+      <c r="C551" t="n">
         <v>2.962</v>
       </c>
-      <c r="D545" t="s">
-        <v>759</v>
-      </c>
-      <c r="E545" t="s">
-        <v>760</v>
-      </c>
-      <c r="F545" t="s">
-        <v>761</v>
-      </c>
-      <c r="G545" t="s">
+      <c r="D551" t="s">
+        <v>763</v>
+      </c>
+      <c r="E551" t="s">
+        <v>764</v>
+      </c>
+      <c r="F551" t="s">
+        <v>765</v>
+      </c>
+      <c r="G551" t="s">
         <v>585</v>
       </c>
-      <c r="H545" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8">
-      <c r="B546" t="s">
-        <v>737</v>
-      </c>
-      <c r="C546" t="n">
-        <v>3.4335</v>
-      </c>
-      <c r="D546" t="s">
-        <v>762</v>
-      </c>
-      <c r="E546" t="s">
-        <v>763</v>
-      </c>
-      <c r="F546" t="s">
-        <v>280</v>
-      </c>
-      <c r="G546" t="s">
-        <v>764</v>
-      </c>
-      <c r="H546" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8">
-      <c r="A548" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8">
-      <c r="B549" t="s">
-        <v>766</v>
-      </c>
-      <c r="C549" t="n">
-        <v>3.421</v>
-      </c>
-      <c r="D549" t="s">
-        <v>123</v>
-      </c>
-      <c r="E549" t="s">
-        <v>767</v>
-      </c>
-      <c r="F549" t="s">
-        <v>21</v>
-      </c>
-      <c r="G549" t="s">
-        <v>21</v>
-      </c>
-      <c r="H549" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8">
-      <c r="A551" t="s">
-        <v>768</v>
+      <c r="H551" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="552" spans="1:8">
       <c r="B552" t="s">
-        <v>380</v>
+        <v>741</v>
       </c>
       <c r="C552" t="n">
-        <v>3.755</v>
+        <v>3.4335</v>
       </c>
       <c r="D552" t="s">
-        <v>666</v>
+        <v>766</v>
       </c>
       <c r="E552" t="s">
-        <v>667</v>
+        <v>767</v>
       </c>
       <c r="F552" t="s">
-        <v>21</v>
+        <v>280</v>
       </c>
       <c r="G552" t="s">
-        <v>21</v>
+        <v>768</v>
       </c>
       <c r="H552" t="s">
         <v>21</v>
@@ -8870,16 +8912,16 @@
         <v>770</v>
       </c>
       <c r="C555" t="n">
-        <v>3.469</v>
+        <v>3.421</v>
       </c>
       <c r="D555" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="E555" t="s">
-        <v>674</v>
+        <v>771</v>
       </c>
       <c r="F555" t="s">
-        <v>284</v>
+        <v>21</v>
       </c>
       <c r="G555" t="s">
         <v>21</v>
@@ -8890,21 +8932,21 @@
     </row>
     <row r="557" spans="1:8">
       <c r="A557" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="558" spans="1:8">
       <c r="B558" t="s">
-        <v>732</v>
+        <v>380</v>
       </c>
       <c r="C558" t="n">
-        <v>4</v>
+        <v>3.755</v>
       </c>
       <c r="D558" t="s">
-        <v>69</v>
+        <v>670</v>
       </c>
       <c r="E558" t="s">
-        <v>21</v>
+        <v>671</v>
       </c>
       <c r="F558" t="s">
         <v>21</v>
@@ -8918,24 +8960,24 @@
     </row>
     <row r="560" spans="1:8">
       <c r="A560" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="561" spans="1:8">
       <c r="B561" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C561" t="n">
-        <v>3.786</v>
+        <v>3.469</v>
       </c>
       <c r="D561" t="s">
-        <v>774</v>
+        <v>152</v>
       </c>
       <c r="E561" t="s">
-        <v>287</v>
+        <v>678</v>
       </c>
       <c r="F561" t="s">
-        <v>21</v>
+        <v>284</v>
       </c>
       <c r="G561" t="s">
         <v>21</v>
@@ -8951,16 +8993,16 @@
     </row>
     <row r="564" spans="1:8">
       <c r="B564" t="s">
-        <v>773</v>
+        <v>736</v>
       </c>
       <c r="C564" t="n">
-        <v>3.929</v>
+        <v>4</v>
       </c>
       <c r="D564" t="s">
-        <v>776</v>
+        <v>69</v>
       </c>
       <c r="E564" t="s">
-        <v>359</v>
+        <v>21</v>
       </c>
       <c r="F564" t="s">
         <v>21</v>
@@ -8974,315 +9016,315 @@
     </row>
     <row r="566" spans="1:8">
       <c r="A566" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="567" spans="1:8">
       <c r="B567" t="s">
+        <v>777</v>
+      </c>
+      <c r="C567" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D567" t="s">
         <v>778</v>
       </c>
-      <c r="C567" t="n">
+      <c r="E567" t="s">
+        <v>287</v>
+      </c>
+      <c r="F567" t="s">
+        <v>21</v>
+      </c>
+      <c r="G567" t="s">
+        <v>21</v>
+      </c>
+      <c r="H567" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="B570" t="s">
+        <v>777</v>
+      </c>
+      <c r="C570" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="D570" t="s">
+        <v>780</v>
+      </c>
+      <c r="E570" t="s">
+        <v>359</v>
+      </c>
+      <c r="F570" t="s">
+        <v>21</v>
+      </c>
+      <c r="G570" t="s">
+        <v>21</v>
+      </c>
+      <c r="H570" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="B573" t="s">
+        <v>782</v>
+      </c>
+      <c r="C573" t="n">
         <v>3.5605</v>
       </c>
-      <c r="D567" t="s">
-        <v>779</v>
-      </c>
-      <c r="E567" t="s">
-        <v>780</v>
-      </c>
-      <c r="F567" t="s">
-        <v>21</v>
-      </c>
-      <c r="G567" t="s">
-        <v>21</v>
-      </c>
-      <c r="H567" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="568" spans="1:8">
-      <c r="B568" t="s">
-        <v>679</v>
-      </c>
-      <c r="C568" t="n">
-        <v>3.706</v>
-      </c>
-      <c r="D568" t="s">
-        <v>729</v>
-      </c>
-      <c r="E568" t="s">
-        <v>781</v>
-      </c>
-      <c r="F568" t="s">
-        <v>450</v>
-      </c>
-      <c r="G568" t="s">
-        <v>21</v>
-      </c>
-      <c r="H568" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="570" spans="1:8">
-      <c r="A570" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="571" spans="1:8">
-      <c r="B571" t="s">
-        <v>717</v>
-      </c>
-      <c r="C571" t="n">
-        <v>4</v>
-      </c>
-      <c r="D571" t="s">
-        <v>69</v>
-      </c>
-      <c r="E571" t="s">
-        <v>21</v>
-      </c>
-      <c r="F571" t="s">
-        <v>21</v>
-      </c>
-      <c r="G571" t="s">
-        <v>21</v>
-      </c>
-      <c r="H571" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8">
-      <c r="A573" t="s">
+      <c r="D573" t="s">
         <v>783</v>
+      </c>
+      <c r="E573" t="s">
+        <v>784</v>
+      </c>
+      <c r="F573" t="s">
+        <v>21</v>
+      </c>
+      <c r="G573" t="s">
+        <v>21</v>
+      </c>
+      <c r="H573" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="574" spans="1:8">
       <c r="B574" t="s">
-        <v>420</v>
+        <v>683</v>
       </c>
       <c r="C574" t="n">
-        <v>3.037</v>
+        <v>3.706</v>
       </c>
       <c r="D574" t="s">
-        <v>784</v>
+        <v>733</v>
       </c>
       <c r="E574" t="s">
         <v>785</v>
       </c>
       <c r="F574" t="s">
+        <v>450</v>
+      </c>
+      <c r="G574" t="s">
+        <v>21</v>
+      </c>
+      <c r="H574" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
+      <c r="A576" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="B577" t="s">
+        <v>721</v>
+      </c>
+      <c r="C577" t="n">
+        <v>4</v>
+      </c>
+      <c r="D577" t="s">
+        <v>69</v>
+      </c>
+      <c r="E577" t="s">
+        <v>21</v>
+      </c>
+      <c r="F577" t="s">
+        <v>21</v>
+      </c>
+      <c r="G577" t="s">
+        <v>21</v>
+      </c>
+      <c r="H577" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="A579" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="B580" t="s">
+        <v>420</v>
+      </c>
+      <c r="C580" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D580" t="s">
+        <v>788</v>
+      </c>
+      <c r="E580" t="s">
+        <v>789</v>
+      </c>
+      <c r="F580" t="s">
         <v>555</v>
       </c>
-      <c r="G574" t="s">
-        <v>21</v>
-      </c>
-      <c r="H574" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="575" spans="1:8">
-      <c r="B575" t="s">
+      <c r="G580" t="s">
+        <v>21</v>
+      </c>
+      <c r="H580" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="B581" t="s">
         <v>463</v>
       </c>
-      <c r="C575" t="n">
+      <c r="C581" t="n">
         <v>3.96</v>
       </c>
-      <c r="D575" t="s">
-        <v>786</v>
-      </c>
-      <c r="E575" t="s">
-        <v>787</v>
-      </c>
-      <c r="F575" t="s">
-        <v>21</v>
-      </c>
-      <c r="G575" t="s">
-        <v>21</v>
-      </c>
-      <c r="H575" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="577" spans="1:8">
-      <c r="A577" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="578" spans="1:8">
-      <c r="B578" t="s">
-        <v>789</v>
-      </c>
-      <c r="C578" t="n">
+      <c r="D581" t="s">
+        <v>790</v>
+      </c>
+      <c r="E581" t="s">
+        <v>791</v>
+      </c>
+      <c r="F581" t="s">
+        <v>21</v>
+      </c>
+      <c r="G581" t="s">
+        <v>21</v>
+      </c>
+      <c r="H581" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
+      <c r="A583" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="B584" t="s">
+        <v>793</v>
+      </c>
+      <c r="C584" t="n">
         <v>3.2117</v>
       </c>
-      <c r="D578" t="s">
-        <v>790</v>
-      </c>
-      <c r="E578" t="s">
-        <v>791</v>
-      </c>
-      <c r="F578" t="s">
-        <v>792</v>
-      </c>
-      <c r="G578" t="s">
-        <v>793</v>
-      </c>
-      <c r="H578" t="s">
+      <c r="D584" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="579" spans="1:8">
-      <c r="B579" t="s">
+      <c r="E584" t="s">
         <v>795</v>
       </c>
-      <c r="C579" t="n">
-        <v>2.9713</v>
-      </c>
-      <c r="D579" t="s">
+      <c r="F584" t="s">
         <v>796</v>
       </c>
-      <c r="E579" t="s">
+      <c r="G584" t="s">
         <v>797</v>
       </c>
-      <c r="F579" t="s">
+      <c r="H584" t="s">
         <v>798</v>
-      </c>
-      <c r="G579" t="s">
-        <v>799</v>
-      </c>
-      <c r="H579" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="581" spans="1:8">
-      <c r="A581" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="582" spans="1:8">
-      <c r="B582" t="s">
-        <v>801</v>
-      </c>
-      <c r="C582" t="n">
-        <v>3.3093</v>
-      </c>
-      <c r="D582" t="s">
-        <v>476</v>
-      </c>
-      <c r="E582" t="s">
-        <v>131</v>
-      </c>
-      <c r="F582" t="s">
-        <v>359</v>
-      </c>
-      <c r="G582" t="s">
-        <v>21</v>
-      </c>
-      <c r="H582" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="584" spans="1:8">
-      <c r="A584" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="585" spans="1:8">
       <c r="B585" t="s">
+        <v>799</v>
+      </c>
+      <c r="C585" t="n">
+        <v>2.9713</v>
+      </c>
+      <c r="D585" t="s">
+        <v>800</v>
+      </c>
+      <c r="E585" t="s">
+        <v>801</v>
+      </c>
+      <c r="F585" t="s">
+        <v>802</v>
+      </c>
+      <c r="G585" t="s">
+        <v>803</v>
+      </c>
+      <c r="H585" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="B586" t="s">
         <v>804</v>
       </c>
-      <c r="C585" t="n">
-        <v>3.2735</v>
-      </c>
-      <c r="D585" t="s">
+      <c r="C586" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D586" t="s">
         <v>805</v>
       </c>
-      <c r="E585" t="s">
+      <c r="E586" t="s">
         <v>806</v>
       </c>
-      <c r="F585" t="s">
+      <c r="F586" t="s">
         <v>807</v>
       </c>
-      <c r="G585" t="s">
-        <v>14</v>
-      </c>
-      <c r="H585" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="587" spans="1:8">
-      <c r="A587" t="s">
+      <c r="G586" t="s">
         <v>808</v>
       </c>
+      <c r="H586" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="588" spans="1:8">
-      <c r="B588" t="s">
+      <c r="A588" t="s">
         <v>809</v>
       </c>
-      <c r="C588" t="n">
-        <v>3.234</v>
-      </c>
-      <c r="D588" t="s">
+    </row>
+    <row r="589" spans="1:8">
+      <c r="B589" t="s">
         <v>810</v>
       </c>
-      <c r="E588" t="s">
+      <c r="C589" t="n">
+        <v>3.3093</v>
+      </c>
+      <c r="D589" t="s">
+        <v>476</v>
+      </c>
+      <c r="E589" t="s">
+        <v>131</v>
+      </c>
+      <c r="F589" t="s">
+        <v>359</v>
+      </c>
+      <c r="G589" t="s">
+        <v>21</v>
+      </c>
+      <c r="H589" t="s">
         <v>811</v>
       </c>
-      <c r="F588" t="s">
+    </row>
+    <row r="591" spans="1:8">
+      <c r="A591" t="s">
         <v>812</v>
-      </c>
-      <c r="G588" t="s">
-        <v>813</v>
-      </c>
-      <c r="H588" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="590" spans="1:8">
-      <c r="A590" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="591" spans="1:8">
-      <c r="B591" t="s">
-        <v>804</v>
-      </c>
-      <c r="C591" t="n">
-        <v>3.517</v>
-      </c>
-      <c r="D591" t="s">
-        <v>816</v>
-      </c>
-      <c r="E591" t="s">
-        <v>442</v>
-      </c>
-      <c r="F591" t="s">
-        <v>817</v>
-      </c>
-      <c r="G591" t="s">
-        <v>21</v>
-      </c>
-      <c r="H591" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="592" spans="1:8">
       <c r="B592" t="s">
-        <v>224</v>
+        <v>813</v>
       </c>
       <c r="C592" t="n">
-        <v>3.2775</v>
+        <v>3.2735</v>
       </c>
       <c r="D592" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E592" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F592" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G592" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H592" t="s">
         <v>21</v>
@@ -9290,96 +9332,55 @@
     </row>
     <row r="594" spans="1:8">
       <c r="A594" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="595" spans="1:8">
       <c r="B595" t="s">
+        <v>818</v>
+      </c>
+      <c r="C595" t="n">
+        <v>3.234</v>
+      </c>
+      <c r="D595" t="s">
+        <v>819</v>
+      </c>
+      <c r="E595" t="s">
+        <v>820</v>
+      </c>
+      <c r="F595" t="s">
+        <v>821</v>
+      </c>
+      <c r="G595" t="s">
         <v>822</v>
       </c>
-      <c r="C595" t="n">
-        <v>3.176</v>
-      </c>
-      <c r="D595" t="s">
-        <v>252</v>
-      </c>
-      <c r="E595" t="s">
+      <c r="H595" t="s">
         <v>823</v>
       </c>
-      <c r="F595" t="s">
-        <v>677</v>
-      </c>
-      <c r="G595" t="s">
-        <v>21</v>
-      </c>
-      <c r="H595" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="596" spans="1:8">
-      <c r="B596" t="s">
+    </row>
+    <row r="597" spans="1:8">
+      <c r="A597" t="s">
         <v>824</v>
-      </c>
-      <c r="C596" t="n">
-        <v>3.742</v>
-      </c>
-      <c r="D596" t="s">
-        <v>785</v>
-      </c>
-      <c r="E596" t="s">
-        <v>553</v>
-      </c>
-      <c r="F596" t="s">
-        <v>825</v>
-      </c>
-      <c r="G596" t="s">
-        <v>21</v>
-      </c>
-      <c r="H596" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="597" spans="1:8">
-      <c r="B597" t="s">
-        <v>826</v>
-      </c>
-      <c r="C597" t="n">
-        <v>3.1543</v>
-      </c>
-      <c r="D597" t="s">
-        <v>137</v>
-      </c>
-      <c r="E597" t="s">
-        <v>827</v>
-      </c>
-      <c r="F597" t="s">
-        <v>828</v>
-      </c>
-      <c r="G597" t="s">
-        <v>829</v>
-      </c>
-      <c r="H597" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="598" spans="1:8">
       <c r="B598" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="C598" t="n">
-        <v>2.981</v>
+        <v>3.517</v>
       </c>
       <c r="D598" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E598" t="s">
-        <v>832</v>
+        <v>442</v>
       </c>
       <c r="F598" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="G598" t="s">
-        <v>834</v>
+        <v>21</v>
       </c>
       <c r="H598" t="s">
         <v>21</v>
@@ -9390,95 +9391,95 @@
         <v>224</v>
       </c>
       <c r="C599" t="n">
-        <v>3.061</v>
+        <v>3.2775</v>
       </c>
       <c r="D599" t="s">
+        <v>827</v>
+      </c>
+      <c r="E599" t="s">
+        <v>828</v>
+      </c>
+      <c r="F599" t="s">
+        <v>829</v>
+      </c>
+      <c r="G599" t="s">
+        <v>21</v>
+      </c>
+      <c r="H599" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
+      <c r="A601" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
+      <c r="B602" t="s">
+        <v>804</v>
+      </c>
+      <c r="C602" t="n">
+        <v>3.2055</v>
+      </c>
+      <c r="D602" t="s">
+        <v>831</v>
+      </c>
+      <c r="E602" t="s">
+        <v>832</v>
+      </c>
+      <c r="F602" t="s">
+        <v>833</v>
+      </c>
+      <c r="G602" t="s">
+        <v>834</v>
+      </c>
+      <c r="H602" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
+      <c r="A604" t="s">
         <v>835</v>
       </c>
-      <c r="E599" t="s">
+    </row>
+    <row r="605" spans="1:8">
+      <c r="B605" t="s">
         <v>836</v>
       </c>
-      <c r="F599" t="s">
-        <v>416</v>
-      </c>
-      <c r="G599" t="s">
+      <c r="C605" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="D605" t="s">
+        <v>252</v>
+      </c>
+      <c r="E605" t="s">
         <v>837</v>
       </c>
-      <c r="H599" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="600" spans="1:8">
-      <c r="B600" t="s">
-        <v>838</v>
-      </c>
-      <c r="C600" t="n">
-        <v>3.171</v>
-      </c>
-      <c r="D600" t="s">
-        <v>839</v>
-      </c>
-      <c r="E600" t="s">
-        <v>338</v>
-      </c>
-      <c r="F600" t="s">
-        <v>385</v>
-      </c>
-      <c r="G600" t="s">
-        <v>21</v>
-      </c>
-      <c r="H600" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="602" spans="1:8">
-      <c r="A602" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="603" spans="1:8">
-      <c r="B603" t="s">
-        <v>420</v>
-      </c>
-      <c r="C603" t="n">
-        <v>3.3828</v>
-      </c>
-      <c r="D603" t="s">
-        <v>841</v>
-      </c>
-      <c r="E603" t="s">
-        <v>842</v>
-      </c>
-      <c r="F603" t="s">
-        <v>450</v>
-      </c>
-      <c r="G603" t="s">
-        <v>843</v>
-      </c>
-      <c r="H603" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="605" spans="1:8">
-      <c r="A605" t="s">
-        <v>845</v>
+      <c r="F605" t="s">
+        <v>681</v>
+      </c>
+      <c r="G605" t="s">
+        <v>21</v>
+      </c>
+      <c r="H605" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="606" spans="1:8">
       <c r="B606" t="s">
-        <v>440</v>
+        <v>838</v>
       </c>
       <c r="C606" t="n">
-        <v>3.421</v>
+        <v>3.742</v>
       </c>
       <c r="D606" t="s">
-        <v>846</v>
+        <v>789</v>
       </c>
       <c r="E606" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="F606" t="s">
-        <v>482</v>
+        <v>839</v>
       </c>
       <c r="G606" t="s">
         <v>21</v>
@@ -9489,164 +9490,312 @@
     </row>
     <row r="607" spans="1:8">
       <c r="B607" t="s">
+        <v>840</v>
+      </c>
+      <c r="C607" t="n">
+        <v>3.1543</v>
+      </c>
+      <c r="D607" t="s">
+        <v>137</v>
+      </c>
+      <c r="E607" t="s">
+        <v>841</v>
+      </c>
+      <c r="F607" t="s">
+        <v>842</v>
+      </c>
+      <c r="G607" t="s">
+        <v>843</v>
+      </c>
+      <c r="H607" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
+      <c r="B608" t="s">
+        <v>844</v>
+      </c>
+      <c r="C608" t="n">
+        <v>2.981</v>
+      </c>
+      <c r="D608" t="s">
+        <v>845</v>
+      </c>
+      <c r="E608" t="s">
+        <v>846</v>
+      </c>
+      <c r="F608" t="s">
         <v>847</v>
       </c>
-      <c r="C607" t="n">
-        <v>3.3763</v>
-      </c>
-      <c r="D607" t="s">
+      <c r="G608" t="s">
         <v>848</v>
       </c>
-      <c r="E607" t="s">
+      <c r="H608" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
+      <c r="B609" t="s">
+        <v>224</v>
+      </c>
+      <c r="C609" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="D609" t="s">
         <v>849</v>
       </c>
-      <c r="F607" t="s">
+      <c r="E609" t="s">
         <v>850</v>
       </c>
-      <c r="G607" t="s">
-        <v>206</v>
-      </c>
-      <c r="H607" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="609" spans="1:8">
-      <c r="A609" t="s">
+      <c r="F609" t="s">
+        <v>416</v>
+      </c>
+      <c r="G609" t="s">
         <v>851</v>
+      </c>
+      <c r="H609" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="610" spans="1:8">
       <c r="B610" t="s">
-        <v>417</v>
+        <v>852</v>
       </c>
       <c r="C610" t="n">
-        <v>3.324</v>
+        <v>3.171</v>
       </c>
       <c r="D610" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E610" t="s">
-        <v>853</v>
+        <v>338</v>
       </c>
       <c r="F610" t="s">
-        <v>854</v>
+        <v>385</v>
       </c>
       <c r="G610" t="s">
-        <v>412</v>
+        <v>21</v>
       </c>
       <c r="H610" t="s">
-        <v>412</v>
+        <v>21</v>
       </c>
     </row>
     <row r="612" spans="1:8">
       <c r="A612" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="613" spans="1:8">
       <c r="B613" t="s">
+        <v>420</v>
+      </c>
+      <c r="C613" t="n">
+        <v>3.3828</v>
+      </c>
+      <c r="D613" t="s">
+        <v>855</v>
+      </c>
+      <c r="E613" t="s">
         <v>856</v>
       </c>
-      <c r="C613" t="n">
-        <v>3.655</v>
-      </c>
-      <c r="D613" t="s">
-        <v>109</v>
-      </c>
-      <c r="E613" t="s">
-        <v>696</v>
-      </c>
       <c r="F613" t="s">
-        <v>21</v>
+        <v>450</v>
       </c>
       <c r="G613" t="s">
-        <v>111</v>
+        <v>857</v>
       </c>
       <c r="H613" t="s">
-        <v>21</v>
+        <v>858</v>
       </c>
     </row>
     <row r="615" spans="1:8">
       <c r="A615" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="616" spans="1:8">
       <c r="B616" t="s">
+        <v>440</v>
+      </c>
+      <c r="C616" t="n">
+        <v>3.421</v>
+      </c>
+      <c r="D616" t="s">
+        <v>860</v>
+      </c>
+      <c r="E616" t="s">
+        <v>578</v>
+      </c>
+      <c r="F616" t="s">
+        <v>482</v>
+      </c>
+      <c r="G616" t="s">
+        <v>21</v>
+      </c>
+      <c r="H616" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8">
+      <c r="B617" t="s">
+        <v>861</v>
+      </c>
+      <c r="C617" t="n">
+        <v>3.3763</v>
+      </c>
+      <c r="D617" t="s">
+        <v>862</v>
+      </c>
+      <c r="E617" t="s">
+        <v>863</v>
+      </c>
+      <c r="F617" t="s">
+        <v>864</v>
+      </c>
+      <c r="G617" t="s">
+        <v>206</v>
+      </c>
+      <c r="H617" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
+      <c r="A619" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
+      <c r="B620" t="s">
+        <v>417</v>
+      </c>
+      <c r="C620" t="n">
+        <v>3.324</v>
+      </c>
+      <c r="D620" t="s">
+        <v>866</v>
+      </c>
+      <c r="E620" t="s">
+        <v>867</v>
+      </c>
+      <c r="F620" t="s">
+        <v>868</v>
+      </c>
+      <c r="G620" t="s">
+        <v>412</v>
+      </c>
+      <c r="H620" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8">
+      <c r="A622" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8">
+      <c r="B623" t="s">
+        <v>870</v>
+      </c>
+      <c r="C623" t="n">
+        <v>3.655</v>
+      </c>
+      <c r="D623" t="s">
+        <v>109</v>
+      </c>
+      <c r="E623" t="s">
+        <v>700</v>
+      </c>
+      <c r="F623" t="s">
+        <v>21</v>
+      </c>
+      <c r="G623" t="s">
+        <v>111</v>
+      </c>
+      <c r="H623" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
+      <c r="A625" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
+      <c r="B626" t="s">
         <v>535</v>
       </c>
-      <c r="C616" t="n">
+      <c r="C626" t="n">
         <v>3.72</v>
       </c>
-      <c r="D616" t="s">
-        <v>858</v>
-      </c>
-      <c r="E616" t="s">
+      <c r="D626" t="s">
+        <v>872</v>
+      </c>
+      <c r="E626" t="s">
         <v>290</v>
       </c>
-      <c r="F616" t="s">
-        <v>21</v>
-      </c>
-      <c r="G616" t="s">
-        <v>21</v>
-      </c>
-      <c r="H616" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="618" spans="1:8">
-      <c r="A618" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="619" spans="1:8">
-      <c r="B619" t="s">
+      <c r="F626" t="s">
+        <v>21</v>
+      </c>
+      <c r="G626" t="s">
+        <v>21</v>
+      </c>
+      <c r="H626" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8">
+      <c r="A628" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8">
+      <c r="B629" t="s">
         <v>535</v>
       </c>
-      <c r="C619" t="n">
+      <c r="C629" t="n">
         <v>3.889</v>
       </c>
-      <c r="D619" t="s">
-        <v>860</v>
-      </c>
-      <c r="E619" t="s">
+      <c r="D629" t="s">
+        <v>874</v>
+      </c>
+      <c r="E629" t="s">
         <v>565</v>
       </c>
-      <c r="F619" t="s">
-        <v>21</v>
-      </c>
-      <c r="G619" t="s">
-        <v>21</v>
-      </c>
-      <c r="H619" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="621" spans="1:8">
-      <c r="A621" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="622" spans="1:8">
-      <c r="B622" t="s">
-        <v>809</v>
-      </c>
-      <c r="C622" t="n">
+      <c r="F629" t="s">
+        <v>21</v>
+      </c>
+      <c r="G629" t="s">
+        <v>21</v>
+      </c>
+      <c r="H629" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8">
+      <c r="A631" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
+      <c r="B632" t="s">
+        <v>818</v>
+      </c>
+      <c r="C632" t="n">
         <v>4</v>
       </c>
-      <c r="D622" t="s">
+      <c r="D632" t="s">
         <v>69</v>
       </c>
-      <c r="E622" t="s">
-        <v>21</v>
-      </c>
-      <c r="F622" t="s">
-        <v>21</v>
-      </c>
-      <c r="G622" t="s">
-        <v>21</v>
-      </c>
-      <c r="H622" t="s">
+      <c r="E632" t="s">
+        <v>21</v>
+      </c>
+      <c r="F632" t="s">
+        <v>21</v>
+      </c>
+      <c r="G632" t="s">
+        <v>21</v>
+      </c>
+      <c r="H632" t="s">
         <v>21</v>
       </c>
     </row>
